--- a/Suppl-Table-S1-Top-15-BP-GO-terms-Celegans-Worm.xlsx
+++ b/Suppl-Table-S1-Top-15-BP-GO-terms-Celegans-Worm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablonsilva/Google Drive/Doutorado/Biology of Ageing/Textos/RPV/Bioinformatics/Bio v4/Supplementary Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dasilp4\Documents\Github\RPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB3589-D967-754C-A260-FC1A0C67BA7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F265E-3B01-40DC-B9FF-856523485C88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19680" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="1185" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>GO Term Id</t>
   </si>
@@ -129,11 +129,8 @@
     <t>hermaphrodite genitalia development</t>
   </si>
   <si>
-    <t>Simpson's paradox frequency</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Supplementary Table S2: Top-15 biological process gene ontology terms for the </t>
+      <t xml:space="preserve">Supplementary Table S1: Top-15 biological process gene ontology terms for the </t>
     </r>
     <r>
       <rPr>
@@ -217,6 +214,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -224,11 +245,43 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -240,10 +293,41 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -255,103 +339,12 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -362,27 +355,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -405,15 +404,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,306 +685,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F19"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="15">
         <v>442</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>0.67279999999999995</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="2">
         <v>303</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.4612</v>
       </c>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="2">
         <v>274</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F6" s="4">
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>266</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.40489999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>265</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.40329999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>265</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.40329999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="13">
-        <v>266</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.40489999999999998</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13">
-        <v>265</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.40329999999999999</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13">
-        <v>265</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.40329999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="D10" s="2">
         <v>123</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>0.18720000000000001</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="2">
         <v>114</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>0.17349999999999999</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="2">
         <v>108</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>0.16439999999999999</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="2">
         <v>106</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>0.1613</v>
       </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="2">
         <v>101</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>0.1537</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="2">
         <v>98</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>0.1492</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="2">
         <v>94</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>0.1431</v>
       </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="2">
         <v>91</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>0.13850000000000001</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="16">
         <v>90</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F18" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>